--- a/1.xlsx
+++ b/1.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
